--- a/example_usage/suites/othersuite.xlsx
+++ b/example_usage/suites/othersuite.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C94139\Desktop\repos\codeless\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D69C3A-3008-4E57-9F68-FF4834E837A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C734F457-813E-4576-9F94-908763B619F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13180" windowHeight="6410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13180" windowHeight="6410" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ui" sheetId="2" r:id="rId1"/>
     <sheet name="t-mapstest" sheetId="12" r:id="rId2"/>
-    <sheet name="d-dataSheet" sheetId="10" r:id="rId3"/>
-    <sheet name="d-dev" sheetId="11" r:id="rId4"/>
+    <sheet name="t-tmotest" sheetId="13" r:id="rId3"/>
+    <sheet name="d-dataSheet" sheetId="10" r:id="rId4"/>
+    <sheet name="d-dev" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>key</t>
   </si>
@@ -294,7 +295,55 @@
     <t>{{salary}}</t>
   </si>
   <si>
-    <t>body::string::{"name":"newemployee","salary":"305","age":"25"}</t>
+    <t>navigate to tmobile page</t>
+  </si>
+  <si>
+    <t>{{tmopage}}</t>
+  </si>
+  <si>
+    <t>click menu</t>
+  </si>
+  <si>
+    <t>tmo.tmopage.menu</t>
+  </si>
+  <si>
+    <t>click Join us option</t>
+  </si>
+  <si>
+    <t>tmo.tmopage.joinlink</t>
+  </si>
+  <si>
+    <t>body::string::{"name":"magenta","salary":"305","age":"25"}</t>
+  </si>
+  <si>
+    <t>export::search::JSONPATH::employee_name</t>
+  </si>
+  <si>
+    <t>click search button</t>
+  </si>
+  <si>
+    <t>tmo.tmopage.search</t>
+  </si>
+  <si>
+    <t>send value</t>
+  </si>
+  <si>
+    <t>sendkeys</t>
+  </si>
+  <si>
+    <t>tmo.tmopage.searchText</t>
+  </si>
+  <si>
+    <t>{{search}}</t>
+  </si>
+  <si>
+    <t>close browser</t>
+  </si>
+  <si>
+    <t>waitTime::4000</t>
+  </si>
+  <si>
+    <t>waitTime::6000</t>
   </si>
 </sst>
 </file>
@@ -880,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEB8117-E754-4E19-8B29-956FB96AE5DB}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,10 +943,10 @@
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="55.90625" customWidth="1"/>
     <col min="6" max="6" width="47.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,8 +965,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -925,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>78</v>
       </c>
@@ -939,13 +991,13 @@
         <v>81</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>83</v>
       </c>
@@ -964,8 +1016,11 @@
       <c r="F4" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -977,7 +1032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -991,7 +1046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1005,7 +1060,7 @@
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>79</v>
       </c>
@@ -1017,14 +1072,14 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
@@ -1040,6 +1095,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0F4D4C-BAAB-4BB1-839A-0012A4DBB58B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.26953125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1143,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
